--- a/인게임 종합/인게임 종합 UI 기획.xlsx
+++ b/인게임 종합/인게임 종합 UI 기획.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\CCIT_02\Project\인게임\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\인게임 종합\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F25C8B-E541-46F0-98A1-9E967352D727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6934F-AF2B-4BD5-8D39-C9DCB6C9B370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인게임 UI" sheetId="1" r:id="rId1"/>
@@ -540,9 +540,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -550,6 +547,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2373,8 +2373,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="687457" y="7661413"/>
-          <a:ext cx="5818305" cy="3246262"/>
+          <a:off x="665018" y="8201891"/>
+          <a:ext cx="5721926" cy="3465375"/>
           <a:chOff x="304800" y="190500"/>
           <a:chExt cx="6400800" cy="3600450"/>
         </a:xfrm>
@@ -4497,8 +4497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2778296" y="8696739"/>
-          <a:ext cx="2068181" cy="299762"/>
+          <a:off x="2743961" y="9310255"/>
+          <a:ext cx="2028575" cy="314369"/>
           <a:chOff x="1920683" y="1744817"/>
           <a:chExt cx="2058015" cy="300516"/>
         </a:xfrm>
@@ -5840,8 +5840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2778296" y="9125437"/>
-          <a:ext cx="2068181" cy="299763"/>
+          <a:off x="2743961" y="9768167"/>
+          <a:ext cx="2028575" cy="314371"/>
           <a:chOff x="1920683" y="1744817"/>
           <a:chExt cx="2058015" cy="300516"/>
         </a:xfrm>
@@ -8473,8 +8473,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2114324" y="14158412"/>
-          <a:ext cx="623192" cy="478104"/>
+          <a:off x="2074718" y="15151722"/>
+          <a:ext cx="623192" cy="507320"/>
           <a:chOff x="6911943" y="2862894"/>
           <a:chExt cx="841604" cy="647700"/>
         </a:xfrm>
@@ -8892,8 +8892,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="765389" y="14158412"/>
-          <a:ext cx="512104" cy="478104"/>
+          <a:off x="742950" y="15151722"/>
+          <a:ext cx="512104" cy="507320"/>
           <a:chOff x="6690059" y="3127877"/>
           <a:chExt cx="475399" cy="445235"/>
         </a:xfrm>
@@ -9600,8 +9600,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9734722" y="4927503"/>
-          <a:ext cx="2141960" cy="464190"/>
+          <a:off x="9503713" y="5263476"/>
+          <a:ext cx="2074644" cy="508012"/>
           <a:chOff x="9823241" y="5174948"/>
           <a:chExt cx="2133419" cy="468072"/>
         </a:xfrm>
@@ -10596,8 +10596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="761134" y="4020424"/>
-          <a:ext cx="448541" cy="345199"/>
+          <a:off x="745894" y="4237594"/>
+          <a:ext cx="448541" cy="356629"/>
           <a:chOff x="6911943" y="2862894"/>
           <a:chExt cx="841604" cy="647700"/>
         </a:xfrm>
@@ -11015,8 +11015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="771525" y="2763125"/>
-          <a:ext cx="365198" cy="342026"/>
+          <a:off x="756285" y="2911715"/>
+          <a:ext cx="365198" cy="353456"/>
           <a:chOff x="6690059" y="3127877"/>
           <a:chExt cx="475399" cy="445235"/>
         </a:xfrm>
@@ -11723,8 +11723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="756342" y="5514975"/>
-          <a:ext cx="2808500" cy="323871"/>
+          <a:off x="741102" y="5812155"/>
+          <a:ext cx="2778020" cy="335301"/>
           <a:chOff x="7330440" y="3259931"/>
           <a:chExt cx="1570673" cy="181126"/>
         </a:xfrm>
@@ -13574,8 +13574,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="1047750"/>
-          <a:ext cx="1151282" cy="1294111"/>
+          <a:off x="670560" y="1104900"/>
+          <a:ext cx="1151282" cy="1362691"/>
           <a:chOff x="1559496" y="1404775"/>
           <a:chExt cx="2088232" cy="2320258"/>
         </a:xfrm>
@@ -14267,406 +14267,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="s">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14" t="s">
+      <c r="G54" s="17"/>
+      <c r="H54" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="17" t="s">
+      <c r="G55" s="14"/>
+      <c r="H55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B56" s="2">
         <v>2</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16" t="s">
+      <c r="G56" s="14"/>
+      <c r="H56" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B57" s="2">
         <v>3</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16" t="s">
+      <c r="G57" s="14"/>
+      <c r="H57" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58" s="2">
         <v>4</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="17" t="s">
+      <c r="G58" s="14"/>
+      <c r="H58" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B59" s="2">
         <v>5</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16" t="s">
+      <c r="G59" s="14"/>
+      <c r="H59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60" s="2">
         <v>6</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16" t="s">
+      <c r="G60" s="14"/>
+      <c r="H60" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B61" s="2">
         <v>7</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16" t="s">
+      <c r="G61" s="14"/>
+      <c r="H61" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B62" s="2">
         <v>8</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16" t="s">
+      <c r="G62" s="14"/>
+      <c r="H62" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B63" s="2">
         <v>9</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15" t="s">
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16" t="s">
+      <c r="G63" s="14"/>
+      <c r="H63" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72" s="10" t="s">
         <v>46</v>
       </c>
@@ -14675,43 +14675,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D73" s="3" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H21:L21"/>
@@ -14722,11 +14697,36 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:L63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14739,16 +14739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F975C28-8437-4CD0-A66A-EE05270A6BC3}">
   <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
@@ -14756,17 +14756,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
@@ -14777,12 +14777,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
@@ -14793,12 +14793,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
@@ -14806,32 +14806,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
@@ -14842,17 +14842,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
@@ -14860,17 +14860,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -14878,17 +14878,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
         <v>73</v>
       </c>
